--- a/ДМС/Барнаул/Помощь на дому.xlsx
+++ b/ДМС/Барнаул/Помощь на дому.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10409"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ekaterinamoiseeva/PycharmProjects/ЧББ/ДМС/Барнаул/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\50GarderDV\Downloads\ДМС\Барнаул\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5517F2-E41F-0445-916C-06EBEF9D4D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" tabRatio="800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="800"/>
   </bookViews>
   <sheets>
     <sheet name="Барнаул+" sheetId="6" r:id="rId1"/>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>ПОМОЩЬ НА ДОМУ</t>
   </si>
@@ -35,12 +34,6 @@
     <t>г. Барнаул</t>
   </si>
   <si>
-    <t>г Барнаул, пр-кт Ленина, д 40</t>
-  </si>
-  <si>
-    <t>г Барнаул, ул Кирова, д 60</t>
-  </si>
-  <si>
     <t>г. Бийск</t>
   </si>
   <si>
@@ -121,11 +114,15 @@
   <si>
     <t>https://barnaul.medsi.ru</t>
   </si>
+  <si>
+    <t>г Барнаул, пр-кт Ленина, д 40.
+ ул Кирова, д 60</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -231,8 +228,8 @@
   <cellStyles count="4">
     <cellStyle name="Гиперссылка" xfId="3" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Обычный 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -390,23 +387,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -442,23 +422,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -634,44 +597,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:F8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.6640625" customWidth="1"/>
     <col min="2" max="2" width="36.6640625" customWidth="1"/>
-    <col min="3" max="4" width="28.5" customWidth="1"/>
+    <col min="3" max="4" width="28.44140625" customWidth="1"/>
     <col min="5" max="5" width="33.6640625" customWidth="1"/>
-    <col min="6" max="6" width="21.5" customWidth="1"/>
+    <col min="6" max="6" width="21.44140625" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -679,27 +642,27 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>22</v>
@@ -711,7 +674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -724,14 +687,14 @@
       <c r="D4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>25</v>
+      <c r="E4" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -744,106 +707,75 @@
       <c r="D5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>31</v>
+      <c r="E5" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="2" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="tel:+73852366091" xr:uid="{00000000-0004-0000-0600-000042000000}"/>
-    <hyperlink ref="E2" r:id="rId2" display="https://link.2gis.com/3.2/aHR0cDovL3d3dy5hc211LnJ1LwpodHRwczovL3MxLmJzcy4yZ2lzLmNvbS9ic3MvMwpbeyJjb21tb24iOnsiZm9ybWF0VmVyc2lvbiI6MywiYXBwVmVyc2lvbiI6IjIwMjItMTItMDctMTQiLCJwcm9kdWN0IjozNCwiYXBpa2V5IjoicnVyYmJuMzQ0NiIsImFwaWtleVN0YXR1cyI6MSwiZGV2aWNlTG9jYWxlIjoicnVfUlUiLCJ1c2VyIjoiZGRjYTBhMWYtYTcxNC00NjkxLWI0NWUtNmZjOWRlMTgwMTRhIiwiaXAiOiIzNy4xOTQuMzEuMTM0Iiwic2Vzc2lvbklkIjoiNjUzOTBhNmUtNTY1NC00ZDU0LTgyNjYtNTEyY2EzYjEzMGYyIiwidXNlckFnZW50IjoiTW96aWxsYS81LjAgKFdpbmRvd3MgTlQgMTAuMDsgV2luNjQ7IHg2NCkgQXBwbGVXZWJLaXQvNTM3LjM2IChLSFRNTCwgbGlrZSBHZWNrbykgQ2hyb21lLzEwOC4wLjAuMCBTYWZhcmkvNTM3LjM2IiwiZGV2aWNlVHlwZSI6ImRlc2t0b3AiLCJwZXJzb25hbERhdGFDb2xsZWN0aW9uQWxsb3dlZCI6dHJ1ZX0sInV0Y09mZnNldCI6IiswNzowMCIsInRhYklkIjoiMTBmZDhhYzgtMjNkOS00ODBkLTk5NDYtNzVjNTE2MzQ0ZmYzIiwidGltZXN0YW1wIjoxNjcwNDE3NTM1NjYzLCJ0eXBlIjoyMTEsImV2ZW50VHlwZSI6ImFjdGlvbiIsImV2ZW50SWQiOiI3YzllOTBjNS1lZjIyLTQwZmMtODMzMy1iY2Q2ZGE2NjA3MzAiLCJhY3Rpb25UeXBlIjoiZXh0ZXJuYWxMaW5rIiwiZXZlbnRPcmRpbmFsIjowLCJ1aUVsZW1lbnQiOnsibmFtZSI6ImNvbnRhY3QiLCJvd25lck5hbWUiOiJjYXJkQ29udGFjdHMiLCJwb3NpdGlvbiI6MSwiZnJhbWVVdWlkIjoiYWE1YmNkZTEtOTlhMy00NTgwLWJjNGMtNmNjZjA2OTI3ZDFmIn0sInBheWxvYWQiOnsiY29udGFjdCI6eyJ2YWx1ZSI6Imh0dHA6Ly9saW5rLjJnaXMuY29tLzEuMi8wMTU3M0EyNS9vbmxpbmUvMjAyMjEyMDEvcHJvamVjdDQvNTYzNDc4MjM0NDAxMjE4L251bGwvZTk4b2k2M0EyOTNISjY3NjQ4SUdHRzI0bWtteXVmNDdHNkdDMjdBNjY0MzMxQkgxdWRjbjU2ODc0OEc4NUc2R0c0MUpJN0dKbDFBenV2MTk3MzQ0OTI0NjcySDFISjNINT9odHRwOi8vd3d3LmFzbXUucnUiLCJ0eXBlIjoid2Vic2l0ZSIsInBvc2l0aW9uIjoxfSwicGxhY2VJdGVtIjp7ImVudGl0eSI6eyJpZCI6IjU2MzQ3ODIzNDQwMTIxOCIsInR5cGUiOiJicmFuY2giLCJzZWdtZW50SW5mbyI6eyJiYXNlTG9jYWxlIjoicnVfUlUiLCJzZWdtZW50SWQiOiI0In19LCJnZW9Qb3NpdGlvbiI6eyJsb24iOjgzLjc4MzQ3NywibGF0Ijo1My4zNDI1NjZ9LCJoeWJyaWRFbnRpdGllcyI6W3siaWQiOiI1NjM1ODU2MDg1ODM5MDEiLCJ0eXBlIjoiYnVpbGRpbmcifV0sIm1haW5SdWJyaWMiOiIyMzIiLCJpc0RlbGV0ZWQiOmZhbHNlLCJvcmciOiI1NjM0ODY4MjQzMzU0MzkifSwiZXh0ZXJuYWxMaW5rIjp7ImZvcmtFdmVudE9yZGluYWwiOjY5LCJwYXJlbnRUYWJJZCI6IjQ3OTlhZTg5LWVkMDItNGQ1MS1hNzdiLTVmNDk0MTg4MWViNiJ9fX1d" xr:uid="{00000000-0004-0000-0600-000043000000}"/>
-    <hyperlink ref="D3" r:id="rId3" display="tel:+73852366091" xr:uid="{00000000-0004-0000-0600-000044000000}"/>
-    <hyperlink ref="E3" r:id="rId4" display="https://link.2gis.com/3.2/aHR0cDovL3d3dy5hc211LnJ1LwpodHRwczovL3MxLmJzcy4yZ2lzLmNvbS9ic3MvMwpbeyJjb21tb24iOnsiZm9ybWF0VmVyc2lvbiI6MywiYXBwVmVyc2lvbiI6IjIwMjItMTItMDctMTQiLCJwcm9kdWN0IjozNCwiYXBpa2V5IjoicnVyYmJuMzQ0NiIsImFwaWtleVN0YXR1cyI6MSwiZGV2aWNlTG9jYWxlIjoicnVfUlUiLCJ1c2VyIjoiZGRjYTBhMWYtYTcxNC00NjkxLWI0NWUtNmZjOWRlMTgwMTRhIiwiaXAiOiIzNy4xOTQuMzEuMTM0Iiwic2Vzc2lvbklkIjoiNjUzOTBhNmUtNTY1NC00ZDU0LTgyNjYtNTEyY2EzYjEzMGYyIiwidXNlckFnZW50IjoiTW96aWxsYS81LjAgKFdpbmRvd3MgTlQgMTAuMDsgV2luNjQ7IHg2NCkgQXBwbGVXZWJLaXQvNTM3LjM2IChLSFRNTCwgbGlrZSBHZWNrbykgQ2hyb21lLzEwOC4wLjAuMCBTYWZhcmkvNTM3LjM2IiwiZGV2aWNlVHlwZSI6ImRlc2t0b3AiLCJwZXJzb25hbERhdGFDb2xsZWN0aW9uQWxsb3dlZCI6dHJ1ZX0sInV0Y09mZnNldCI6IiswNzowMCIsInRhYklkIjoiMTBmZDhhYzgtMjNkOS00ODBkLTk5NDYtNzVjNTE2MzQ0ZmYzIiwidGltZXN0YW1wIjoxNjcwNDE3NTM1NjYzLCJ0eXBlIjoyMTEsImV2ZW50VHlwZSI6ImFjdGlvbiIsImV2ZW50SWQiOiI3YzllOTBjNS1lZjIyLTQwZmMtODMzMy1iY2Q2ZGE2NjA3MzAiLCJhY3Rpb25UeXBlIjoiZXh0ZXJuYWxMaW5rIiwiZXZlbnRPcmRpbmFsIjowLCJ1aUVsZW1lbnQiOnsibmFtZSI6ImNvbnRhY3QiLCJvd25lck5hbWUiOiJjYXJkQ29udGFjdHMiLCJwb3NpdGlvbiI6MSwiZnJhbWVVdWlkIjoiYWE1YmNkZTEtOTlhMy00NTgwLWJjNGMtNmNjZjA2OTI3ZDFmIn0sInBheWxvYWQiOnsiY29udGFjdCI6eyJ2YWx1ZSI6Imh0dHA6Ly9saW5rLjJnaXMuY29tLzEuMi8wMTU3M0EyNS9vbmxpbmUvMjAyMjEyMDEvcHJvamVjdDQvNTYzNDc4MjM0NDAxMjE4L251bGwvZTk4b2k2M0EyOTNISjY3NjQ4SUdHRzI0bWtteXVmNDdHNkdDMjdBNjY0MzMxQkgxdWRjbjU2ODc0OEc4NUc2R0c0MUpJN0dKbDFBenV2MTk3MzQ0OTI0NjcySDFISjNINT9odHRwOi8vd3d3LmFzbXUucnUiLCJ0eXBlIjoid2Vic2l0ZSIsInBvc2l0aW9uIjoxfSwicGxhY2VJdGVtIjp7ImVudGl0eSI6eyJpZCI6IjU2MzQ3ODIzNDQwMTIxOCIsInR5cGUiOiJicmFuY2giLCJzZWdtZW50SW5mbyI6eyJiYXNlTG9jYWxlIjoicnVfUlUiLCJzZWdtZW50SWQiOiI0In19LCJnZW9Qb3NpdGlvbiI6eyJsb24iOjgzLjc4MzQ3NywibGF0Ijo1My4zNDI1NjZ9LCJoeWJyaWRFbnRpdGllcyI6W3siaWQiOiI1NjM1ODU2MDg1ODM5MDEiLCJ0eXBlIjoiYnVpbGRpbmcifV0sIm1haW5SdWJyaWMiOiIyMzIiLCJpc0RlbGV0ZWQiOmZhbHNlLCJvcmciOiI1NjM0ODY4MjQzMzU0MzkifSwiZXh0ZXJuYWxMaW5rIjp7ImZvcmtFdmVudE9yZGluYWwiOjY5LCJwYXJlbnRUYWJJZCI6IjQ3OTlhZTg5LWVkMDItNGQ1MS1hNzdiLTVmNDk0MTg4MWViNiJ9fX1d" xr:uid="{00000000-0004-0000-0600-000045000000}"/>
-    <hyperlink ref="D4" r:id="rId5" display="tel:+73852608260" xr:uid="{00000000-0004-0000-0600-000046000000}"/>
-    <hyperlink ref="E4" r:id="rId6" display="https://link.2gis.com/3.2/aHR0cDovL3d3dy5sZGMtbmEtc292ZXRza29pLnJ1LwpodHRwczovL3MxLmJzcy4yZ2lzLmNvbS9ic3MvMwpbeyJjb21tb24iOnsiZm9ybWF0VmVyc2lvbiI6MywiYXBwVmVyc2lvbiI6IjIwMjItMTItMDctMTQiLCJwcm9kdWN0IjozNCwiYXBpa2V5IjoicnVyYmJuMzQ0NiIsImFwaWtleVN0YXR1cyI6MSwiZGV2aWNlTG9jYWxlIjoicnVfUlUiLCJ1c2VyIjoiZGRjYTBhMWYtYTcxNC00NjkxLWI0NWUtNmZjOWRlMTgwMTRhIiwiaXAiOiIzNy4xOTQuMzEuMTM0Iiwic2Vzc2lvbklkIjoiNjUzOTBhNmUtNTY1NC00ZDU0LTgyNjYtNTEyY2EzYjEzMGYyIiwidXNlckFnZW50IjoiTW96aWxsYS81LjAgKFdpbmRvd3MgTlQgMTAuMDsgV2luNjQ7IHg2NCkgQXBwbGVXZWJLaXQvNTM3LjM2IChLSFRNTCwgbGlrZSBHZWNrbykgQ2hyb21lLzEwOC4wLjAuMCBTYWZhcmkvNTM3LjM2IiwiZGV2aWNlVHlwZSI6ImRlc2t0b3AiLCJwZXJzb25hbERhdGFDb2xsZWN0aW9uQWxsb3dlZCI6dHJ1ZX0sInV0Y09mZnNldCI6IiswNzowMCIsInRhYklkIjoiNTkzYTc2MTEtNzZjOS00MTZjLTk3MGMtYWQ1YmQwZDVmNDI3IiwidGltZXN0YW1wIjoxNjcwNDIyMjQ3MzA4LCJ0eXBlIjoyMTEsImV2ZW50VHlwZSI6ImFjdGlvbiIsImV2ZW50SWQiOiIyOTY5MWQ2MS04YjM4LTRkMGUtOGEwNS0xMjU2OGY2MDYzZDEiLCJhY3Rpb25UeXBlIjoiZXh0ZXJuYWxMaW5rIiwiZXZlbnRPcmRpbmFsIjowLCJ1aUVsZW1lbnQiOnsibmFtZSI6ImNvbnRhY3QiLCJvd25lck5hbWUiOiJjYXJkQ29udGFjdHMiLCJwb3NpdGlvbiI6MSwiZnJhbWVVdWlkIjoiMmFmYzAwNzQtNmE2ZS00YmYxLWFhNzUtZTg5ZjU0MzIyMmFiIn0sInBheWxvYWQiOnsiY29udGFjdCI6eyJ2YWx1ZSI6Imh0dHA6Ly9saW5rLjJnaXMuY29tLzEuMi8zNDY3RDUwMy9vbmxpbmUvMjAyMjEyMDEvcHJvamVjdDQvNzAwMDAwMDEwMzE0NzUzNTUvbnVsbC94NUI4cnozQTI5M0g0SDgzMDFJR0dHR0c4c2NkbGk0N0c2R0MyN0IxMzUzNTc4NDZ1ZGNuNTYzNDVBRzg3RzZHMUpHNElKRzc0OGdpdXYxOTczNDUxMDEzMzU2SDFKM0gxNWE%2FaHR0cDovL3d3dy5sZGMtbmEtc292ZXRza29pLnJ1IiwidHlwZSI6IndlYnNpdGUiLCJwb3NpdGlvbiI6MX0sInBsYWNlSXRlbSI6eyJlbnRpdHkiOnsiaWQiOiI3MDAwMDAwMTAzMTQ3NTM1NSIsInR5cGUiOiJicmFuY2giLCJzZWdtZW50SW5mbyI6eyJiYXNlTG9jYWxlIjoicnVfUlUiLCJzZWdtZW50SWQiOiI0In19LCJnZW9Qb3NpdGlvbiI6eyJsb24iOjgzLjc3MzYwNiwibGF0Ijo1My4zNTM2NzF9LCJhZHNTZWFyY2giOmZhbHNlLCJtYWluUnVicmljIjoiNjYxIiwiaXNEZWxldGVkIjpmYWxzZSwib3JnIjoiNzAwMDAwMDEwMzE0NzUzNTQiLCJyZXN1bHRDbGFzcyI6MX0sImV4dGVybmFsTGluayI6eyJmb3JrRXZlbnRPcmRpbmFsIjo0NzgsInBhcmVudFRhYklkIjoiNDc5OWFlODktZWQwMi00ZDUxLWE3N2ItNWY0OTQxODgxZWI2In19fV0%3D" xr:uid="{00000000-0004-0000-0600-000047000000}"/>
-    <hyperlink ref="D5" r:id="rId7" display="tel:+73852720727" xr:uid="{00000000-0004-0000-0600-000048000000}"/>
-    <hyperlink ref="D6" r:id="rId8" display="tel:+73854418977" xr:uid="{00000000-0004-0000-0600-000059000000}"/>
-    <hyperlink ref="E6" r:id="rId9" display="https://link.2gis.com/3.2/aHR0cDovL3d3dy56aGQtYmFybmF1bC5ydS8KaHR0cHM6Ly9zMS5ic3MuMmdpcy5jb20vYnNzLzMKW3siY29tbW9uIjp7ImZvcm1hdFZlcnNpb24iOjMsImFwcFZlcnNpb24iOiIyMDIyLTEyLTA3LTE0IiwicHJvZHVjdCI6MzQsImFwaWtleSI6InJ1cmJibjM0NDYiLCJhcGlrZXlTdGF0dXMiOjEsImRldmljZUxvY2FsZSI6InJ1X1JVIiwidXNlciI6ImRkY2EwYTFmLWE3MTQtNDY5MS1iNDVlLTZmYzlkZTE4MDE0YSIsImlwIjoiMzcuMTk0LjMxLjEzNCIsInNlc3Npb25JZCI6IjY1MzkwYTZlLTU2NTQtNGQ1NC04MjY2LTUxMmNhM2IxMzBmMiIsInVzZXJBZ2VudCI6Ik1vemlsbGEvNS4wIChXaW5kb3dzIE5UIDEwLjA7IFdpbjY0OyB4NjQpIEFwcGxlV2ViS2l0LzUzNy4zNiAoS0hUTUwsIGxpa2UgR2Vja28pIENocm9tZS8xMDguMC4wLjAgU2FmYXJpLzUzNy4zNiIsImRldmljZVR5cGUiOiJkZXNrdG9wIiwicGVyc29uYWxEYXRhQ29sbGVjdGlvbkFsbG93ZWQiOnRydWV9LCJ1dGNPZmZzZXQiOiIrMDc6MDAiLCJ0YWJJZCI6IjYwMTE0ZTVmLWQwOTgtNGViMi1hYmE5LWI3NWEzMWNlYjQzYSIsInRpbWVzdGFtcCI6MTY3MDQyMzc4MzgyNywidHlwZSI6MjExLCJldmVudFR5cGUiOiJhY3Rpb24iLCJldmVudElkIjoiZWUwNWM4ZjAtZmFhNS00MGQ3LWI1NDYtNzYyM2ZmYjlhMTE0IiwiYWN0aW9uVHlwZSI6ImV4dGVybmFsTGluayIsImV2ZW50T3JkaW5hbCI6MCwidWlFbGVtZW50Ijp7Im5hbWUiOiJjb250YWN0Iiwib3duZXJOYW1lIjoiY2FyZENvbnRhY3RzIiwicG9zaXRpb24iOjEsImZyYW1lVXVpZCI6ImNmYjczM2Y1LTljM2UtNDA1Yi1hYzFmLTE4NmIzN2E1OWVmMSJ9LCJwYXlsb2FkIjp7ImNvbnRhY3QiOnsidmFsdWUiOiJodHRwOi8vbGluay4yZ2lzLmNvbS8xLjIvNzA3QkI5NEMvb25saW5lLzIwMjIxMjAxL3Byb2plY3QyMC8yODE1Mjc4MDQ4MDg2MDU3L251bGwvdzNFbXNnM0EyOTNINEgzQjE2SUdHR0cwdXR2c21zNDdHNkdDMjdCMzE5Mjk2MzY4dWRjbjU2NDk5Nkc4M0c2RzFKMUpJSjRKbnNlbHV2MTk3MzQ1Mzc5MjdBSDFIM0pIN2U%2FaHR0cDovL3d3dy56aGQtYmFybmF1bC5ydSIsInR5cGUiOiJ3ZWJzaXRlIiwicG9zaXRpb24iOjF9LCJwbGFjZUl0ZW0iOnsiZW50aXR5Ijp7ImlkIjoiMjgxNTI3ODA0ODA4NjA1NyIsInR5cGUiOiJicmFuY2giLCJzZWdtZW50SW5mbyI6eyJiYXNlTG9jYWxlIjoicnVfUlUiLCJzZWdtZW50SWQiOiIyMCJ9fSwiZ2VvUG9zaXRpb24iOnsibG9uIjo4NS4xODQzNzgsImxhdCI6NTIuNTM0MzE5fSwiaHlicmlkRW50aXRpZXMiOlt7ImlkIjoiMjgxNTM4NTQyMjI3NTk1OSIsInR5cGUiOiJidWlsZGluZyJ9XSwiYWRzU2VhcmNoIjpmYWxzZSwibWFpblJ1YnJpYyI6IjIyNCIsImlzRGVsZXRlZCI6ZmFsc2UsIm9yZyI6IjI4MTUyODY2MzgwMjA1MDQiLCJyZXN1bHRDbGFzcyI6MX0sImV4dGVybmFsTGluayI6eyJmb3JrRXZlbnRPcmRpbmFsIjo4MDIsInBhcmVudFRhYklkIjoiNDc5OWFlODktZWQwMi00ZDUxLWE3N2ItNWY0OTQxODgxZWI2In19fV0%3D" xr:uid="{00000000-0004-0000-0600-00005A000000}"/>
-    <hyperlink ref="D7" r:id="rId10" display="tel:+73852507589" xr:uid="{00000000-0004-0000-0600-00005D000000}"/>
-    <hyperlink ref="E7" r:id="rId11" display="https://link.2gis.com/3.2/aHR0cDovL3d3dy51bHRyYW1lZGJhcm5hdWwucnUvCmh0dHBzOi8vczEuYnNzLjJnaXMuY29tL2Jzcy8zClt7ImNvbW1vbiI6eyJmb3JtYXRWZXJzaW9uIjozLCJhcHBWZXJzaW9uIjoiMjAyMi0xMi0wNy0xNCIsInByb2R1Y3QiOjM0LCJhcGlrZXkiOiJydXJiYm4zNDQ2IiwiYXBpa2V5U3RhdHVzIjoxLCJkZXZpY2VMb2NhbGUiOiJydV9SVSIsInVzZXIiOiJkZGNhMGExZi1hNzE0LTQ2OTEtYjQ1ZS02ZmM5ZGUxODAxNGEiLCJpcCI6IjM3LjE5NC4zMS4xMzQiLCJzZXNzaW9uSWQiOiI2NTM5MGE2ZS01NjU0LTRkNTQtODI2Ni01MTJjYTNiMTMwZjIiLCJ1c2VyQWdlbnQiOiJNb3ppbGxhLzUuMCAoV2luZG93cyBOVCAxMC4wOyBXaW42NDsgeDY0KSBBcHBsZVdlYktpdC81MzcuMzYgKEtIVE1MLCBsaWtlIEdlY2tvKSBDaHJvbWUvMTA4LjAuMC4wIFNhZmFyaS81MzcuMzYiLCJkZXZpY2VUeXBlIjoiZGVza3RvcCIsInBlcnNvbmFsRGF0YUNvbGxlY3Rpb25BbGxvd2VkIjp0cnVlfSwidXRjT2Zmc2V0IjoiKzA3OjAwIiwidGFiSWQiOiJiNzYxNzcxZC1mYzI4LTQ3NDAtODEwMi1iOTY3Yjg4ZmM5ODciLCJ0aW1lc3RhbXAiOjE2NzA0MjM5ODMwOTIsInR5cGUiOjIxMSwiZXZlbnRUeXBlIjoiYWN0aW9uIiwiZXZlbnRJZCI6Ijg3NDVkZGE0LTA3ZDEtNDhjYS05MDIzLWRhM2IzZTFhNDRiNyIsImFjdGlvblR5cGUiOiJleHRlcm5hbExpbmsiLCJldmVudE9yZGluYWwiOjAsInVpRWxlbWVudCI6eyJuYW1lIjoiY29udGFjdCIsIm93bmVyTmFtZSI6ImNhcmRDb250YWN0cyIsInBvc2l0aW9uIjoxLCJmcmFtZVV1aWQiOiI5YzAzYTI1NC03MGFmLTQzNDAtYTBlYS0xZDhmNmI5ZTJiMjAifSwicGF5bG9hZCI6eyJjb250YWN0Ijp7InZhbHVlIjoiaHR0cDovL2xpbmsuMmdpcy5jb20vMS4yLzg3ODExMEEwL29ubGluZS8yMDIyMTIwMS9wcm9qZWN0NC81NjM0NzgyMzQ3MzM2MzAvbnVsbC94anhmNjIzQTI5M0g0SDY5MzVJR0dHMGF1ejdta2U0N0c2R0MyN0IzMDg1NDY2MUh1ZGNuNTY0QjhDRzg5RzZHMUpHSkk3R0pwYnRpdXYxOTczNDU4ODM1NzkxSDFKSjJlP2h0dHA6Ly93d3cudWx0cmFtZWRiYXJuYXVsLnJ1IiwidHlwZSI6IndlYnNpdGUiLCJwb3NpdGlvbiI6MX0sInBsYWNlSXRlbSI6eyJlbnRpdHkiOnsiaWQiOiI1NjM0NzgyMzQ3MzM2MzAiLCJ0eXBlIjoiYnJhbmNoIiwic2VnbWVudEluZm8iOnsiYmFzZUxvY2FsZSI6InJ1X1JVIiwic2VnbWVudElkIjoiNCJ9fSwiZ2VvUG9zaXRpb24iOnsibG9uIjo4My42ODgyODcsImxhdCI6NTMuMzM0NTczfSwiYWRzU2VhcmNoIjpmYWxzZSwibWFpblJ1YnJpYyI6IjQ1MjEiLCJpc0RlbGV0ZWQiOmZhbHNlLCJvcmciOiI1NjM0ODY4MjQ1NzUzODkiLCJyZXN1bHRDbGFzcyI6MX0sImV4dGVybmFsTGluayI6eyJmb3JrRXZlbnRPcmRpbmFsIjo4NTUsInBhcmVudFRhYklkIjoiNDc5OWFlODktZWQwMi00ZDUxLWE3N2ItNWY0OTQxODgxZWI2In19fV0%3D" xr:uid="{00000000-0004-0000-0600-00005E000000}"/>
-    <hyperlink ref="D8" r:id="rId12" display="tel:+73854418977" xr:uid="{00000000-0004-0000-0600-00005F000000}"/>
-    <hyperlink ref="E8" r:id="rId13" display="https://link.2gis.com/3.2/aHR0cDovL3d3dy56aGQtYmFybmF1bC5ydS8KaHR0cHM6Ly9zMS5ic3MuMmdpcy5jb20vYnNzLzMKW3siY29tbW9uIjp7ImZvcm1hdFZlcnNpb24iOjMsImFwcFZlcnNpb24iOiIyMDIyLTEyLTA3LTE0IiwicHJvZHVjdCI6MzQsImFwaWtleSI6InJ1cmJibjM0NDYiLCJhcGlrZXlTdGF0dXMiOjEsImRldmljZUxvY2FsZSI6InJ1X1JVIiwidXNlciI6ImRkY2EwYTFmLWE3MTQtNDY5MS1iNDVlLTZmYzlkZTE4MDE0YSIsImlwIjoiMzcuMTk0LjMxLjEzNCIsInNlc3Npb25JZCI6IjY1MzkwYTZlLTU2NTQtNGQ1NC04MjY2LTUxMmNhM2IxMzBmMiIsInVzZXJBZ2VudCI6Ik1vemlsbGEvNS4wIChXaW5kb3dzIE5UIDEwLjA7IFdpbjY0OyB4NjQpIEFwcGxlV2ViS2l0LzUzNy4zNiAoS0hUTUwsIGxpa2UgR2Vja28pIENocm9tZS8xMDguMC4wLjAgU2FmYXJpLzUzNy4zNiIsImRldmljZVR5cGUiOiJkZXNrdG9wIiwicGVyc29uYWxEYXRhQ29sbGVjdGlvbkFsbG93ZWQiOnRydWV9LCJ1dGNPZmZzZXQiOiIrMDc6MDAiLCJ0YWJJZCI6IjYwMTE0ZTVmLWQwOTgtNGViMi1hYmE5LWI3NWEzMWNlYjQzYSIsInRpbWVzdGFtcCI6MTY3MDQyMzc4MzgyNywidHlwZSI6MjExLCJldmVudFR5cGUiOiJhY3Rpb24iLCJldmVudElkIjoiZWUwNWM4ZjAtZmFhNS00MGQ3LWI1NDYtNzYyM2ZmYjlhMTE0IiwiYWN0aW9uVHlwZSI6ImV4dGVybmFsTGluayIsImV2ZW50T3JkaW5hbCI6MCwidWlFbGVtZW50Ijp7Im5hbWUiOiJjb250YWN0Iiwib3duZXJOYW1lIjoiY2FyZENvbnRhY3RzIiwicG9zaXRpb24iOjEsImZyYW1lVXVpZCI6ImNmYjczM2Y1LTljM2UtNDA1Yi1hYzFmLTE4NmIzN2E1OWVmMSJ9LCJwYXlsb2FkIjp7ImNvbnRhY3QiOnsidmFsdWUiOiJodHRwOi8vbGluay4yZ2lzLmNvbS8xLjIvNzA3QkI5NEMvb25saW5lLzIwMjIxMjAxL3Byb2plY3QyMC8yODE1Mjc4MDQ4MDg2MDU3L251bGwvdzNFbXNnM0EyOTNINEgzQjE2SUdHR0cwdXR2c21zNDdHNkdDMjdCMzE5Mjk2MzY4dWRjbjU2NDk5Nkc4M0c2RzFKMUpJSjRKbnNlbHV2MTk3MzQ1Mzc5MjdBSDFIM0pIN2U%2FaHR0cDovL3d3dy56aGQtYmFybmF1bC5ydSIsInR5cGUiOiJ3ZWJzaXRlIiwicG9zaXRpb24iOjF9LCJwbGFjZUl0ZW0iOnsiZW50aXR5Ijp7ImlkIjoiMjgxNTI3ODA0ODA4NjA1NyIsInR5cGUiOiJicmFuY2giLCJzZWdtZW50SW5mbyI6eyJiYXNlTG9jYWxlIjoicnVfUlUiLCJzZWdtZW50SWQiOiIyMCJ9fSwiZ2VvUG9zaXRpb24iOnsibG9uIjo4NS4xODQzNzgsImxhdCI6NTIuNTM0MzE5fSwiaHlicmlkRW50aXRpZXMiOlt7ImlkIjoiMjgxNTM4NTQyMjI3NTk1OSIsInR5cGUiOiJidWlsZGluZyJ9XSwiYWRzU2VhcmNoIjpmYWxzZSwibWFpblJ1YnJpYyI6IjIyNCIsImlzRGVsZXRlZCI6ZmFsc2UsIm9yZyI6IjI4MTUyODY2MzgwMjA1MDQiLCJyZXN1bHRDbGFzcyI6MX0sImV4dGVybmFsTGluayI6eyJmb3JrRXZlbnRPcmRpbmFsIjo4MDIsInBhcmVudFRhYklkIjoiNDc5OWFlODktZWQwMi00ZDUxLWE3N2ItNWY0OTQxODgxZWI2In19fV0%3D" xr:uid="{00000000-0004-0000-0600-000060000000}"/>
+    <hyperlink ref="D2" r:id="rId1" display="tel:+73852366091"/>
+    <hyperlink ref="E2" r:id="rId2" display="https://link.2gis.com/3.2/aHR0cDovL3d3dy5hc211LnJ1LwpodHRwczovL3MxLmJzcy4yZ2lzLmNvbS9ic3MvMwpbeyJjb21tb24iOnsiZm9ybWF0VmVyc2lvbiI6MywiYXBwVmVyc2lvbiI6IjIwMjItMTItMDctMTQiLCJwcm9kdWN0IjozNCwiYXBpa2V5IjoicnVyYmJuMzQ0NiIsImFwaWtleVN0YXR1cyI6MSwiZGV2aWNlTG9jYWxlIjoicnVfUlUiLCJ1c2VyIjoiZGRjYTBhMWYtYTcxNC00NjkxLWI0NWUtNmZjOWRlMTgwMTRhIiwiaXAiOiIzNy4xOTQuMzEuMTM0Iiwic2Vzc2lvbklkIjoiNjUzOTBhNmUtNTY1NC00ZDU0LTgyNjYtNTEyY2EzYjEzMGYyIiwidXNlckFnZW50IjoiTW96aWxsYS81LjAgKFdpbmRvd3MgTlQgMTAuMDsgV2luNjQ7IHg2NCkgQXBwbGVXZWJLaXQvNTM3LjM2IChLSFRNTCwgbGlrZSBHZWNrbykgQ2hyb21lLzEwOC4wLjAuMCBTYWZhcmkvNTM3LjM2IiwiZGV2aWNlVHlwZSI6ImRlc2t0b3AiLCJwZXJzb25hbERhdGFDb2xsZWN0aW9uQWxsb3dlZCI6dHJ1ZX0sInV0Y09mZnNldCI6IiswNzowMCIsInRhYklkIjoiMTBmZDhhYzgtMjNkOS00ODBkLTk5NDYtNzVjNTE2MzQ0ZmYzIiwidGltZXN0YW1wIjoxNjcwNDE3NTM1NjYzLCJ0eXBlIjoyMTEsImV2ZW50VHlwZSI6ImFjdGlvbiIsImV2ZW50SWQiOiI3YzllOTBjNS1lZjIyLTQwZmMtODMzMy1iY2Q2ZGE2NjA3MzAiLCJhY3Rpb25UeXBlIjoiZXh0ZXJuYWxMaW5rIiwiZXZlbnRPcmRpbmFsIjowLCJ1aUVsZW1lbnQiOnsibmFtZSI6ImNvbnRhY3QiLCJvd25lck5hbWUiOiJjYXJkQ29udGFjdHMiLCJwb3NpdGlvbiI6MSwiZnJhbWVVdWlkIjoiYWE1YmNkZTEtOTlhMy00NTgwLWJjNGMtNmNjZjA2OTI3ZDFmIn0sInBheWxvYWQiOnsiY29udGFjdCI6eyJ2YWx1ZSI6Imh0dHA6Ly9saW5rLjJnaXMuY29tLzEuMi8wMTU3M0EyNS9vbmxpbmUvMjAyMjEyMDEvcHJvamVjdDQvNTYzNDc4MjM0NDAxMjE4L251bGwvZTk4b2k2M0EyOTNISjY3NjQ4SUdHRzI0bWtteXVmNDdHNkdDMjdBNjY0MzMxQkgxdWRjbjU2ODc0OEc4NUc2R0c0MUpJN0dKbDFBenV2MTk3MzQ0OTI0NjcySDFISjNINT9odHRwOi8vd3d3LmFzbXUucnUiLCJ0eXBlIjoid2Vic2l0ZSIsInBvc2l0aW9uIjoxfSwicGxhY2VJdGVtIjp7ImVudGl0eSI6eyJpZCI6IjU2MzQ3ODIzNDQwMTIxOCIsInR5cGUiOiJicmFuY2giLCJzZWdtZW50SW5mbyI6eyJiYXNlTG9jYWxlIjoicnVfUlUiLCJzZWdtZW50SWQiOiI0In19LCJnZW9Qb3NpdGlvbiI6eyJsb24iOjgzLjc4MzQ3NywibGF0Ijo1My4zNDI1NjZ9LCJoeWJyaWRFbnRpdGllcyI6W3siaWQiOiI1NjM1ODU2MDg1ODM5MDEiLCJ0eXBlIjoiYnVpbGRpbmcifV0sIm1haW5SdWJyaWMiOiIyMzIiLCJpc0RlbGV0ZWQiOmZhbHNlLCJvcmciOiI1NjM0ODY4MjQzMzU0MzkifSwiZXh0ZXJuYWxMaW5rIjp7ImZvcmtFdmVudE9yZGluYWwiOjY5LCJwYXJlbnRUYWJJZCI6IjQ3OTlhZTg5LWVkMDItNGQ1MS1hNzdiLTVmNDk0MTg4MWViNiJ9fX1d"/>
+    <hyperlink ref="D3" r:id="rId3" display="tel:+73852608260"/>
+    <hyperlink ref="E3" r:id="rId4" display="https://link.2gis.com/3.2/aHR0cDovL3d3dy5sZGMtbmEtc292ZXRza29pLnJ1LwpodHRwczovL3MxLmJzcy4yZ2lzLmNvbS9ic3MvMwpbeyJjb21tb24iOnsiZm9ybWF0VmVyc2lvbiI6MywiYXBwVmVyc2lvbiI6IjIwMjItMTItMDctMTQiLCJwcm9kdWN0IjozNCwiYXBpa2V5IjoicnVyYmJuMzQ0NiIsImFwaWtleVN0YXR1cyI6MSwiZGV2aWNlTG9jYWxlIjoicnVfUlUiLCJ1c2VyIjoiZGRjYTBhMWYtYTcxNC00NjkxLWI0NWUtNmZjOWRlMTgwMTRhIiwiaXAiOiIzNy4xOTQuMzEuMTM0Iiwic2Vzc2lvbklkIjoiNjUzOTBhNmUtNTY1NC00ZDU0LTgyNjYtNTEyY2EzYjEzMGYyIiwidXNlckFnZW50IjoiTW96aWxsYS81LjAgKFdpbmRvd3MgTlQgMTAuMDsgV2luNjQ7IHg2NCkgQXBwbGVXZWJLaXQvNTM3LjM2IChLSFRNTCwgbGlrZSBHZWNrbykgQ2hyb21lLzEwOC4wLjAuMCBTYWZhcmkvNTM3LjM2IiwiZGV2aWNlVHlwZSI6ImRlc2t0b3AiLCJwZXJzb25hbERhdGFDb2xsZWN0aW9uQWxsb3dlZCI6dHJ1ZX0sInV0Y09mZnNldCI6IiswNzowMCIsInRhYklkIjoiNTkzYTc2MTEtNzZjOS00MTZjLTk3MGMtYWQ1YmQwZDVmNDI3IiwidGltZXN0YW1wIjoxNjcwNDIyMjQ3MzA4LCJ0eXBlIjoyMTEsImV2ZW50VHlwZSI6ImFjdGlvbiIsImV2ZW50SWQiOiIyOTY5MWQ2MS04YjM4LTRkMGUtOGEwNS0xMjU2OGY2MDYzZDEiLCJhY3Rpb25UeXBlIjoiZXh0ZXJuYWxMaW5rIiwiZXZlbnRPcmRpbmFsIjowLCJ1aUVsZW1lbnQiOnsibmFtZSI6ImNvbnRhY3QiLCJvd25lck5hbWUiOiJjYXJkQ29udGFjdHMiLCJwb3NpdGlvbiI6MSwiZnJhbWVVdWlkIjoiMmFmYzAwNzQtNmE2ZS00YmYxLWFhNzUtZTg5ZjU0MzIyMmFiIn0sInBheWxvYWQiOnsiY29udGFjdCI6eyJ2YWx1ZSI6Imh0dHA6Ly9saW5rLjJnaXMuY29tLzEuMi8zNDY3RDUwMy9vbmxpbmUvMjAyMjEyMDEvcHJvamVjdDQvNzAwMDAwMDEwMzE0NzUzNTUvbnVsbC94NUI4cnozQTI5M0g0SDgzMDFJR0dHR0c4c2NkbGk0N0c2R0MyN0IxMzUzNTc4NDZ1ZGNuNTYzNDVBRzg3RzZHMUpHNElKRzc0OGdpdXYxOTczNDUxMDEzMzU2SDFKM0gxNWE%2FaHR0cDovL3d3dy5sZGMtbmEtc292ZXRza29pLnJ1IiwidHlwZSI6IndlYnNpdGUiLCJwb3NpdGlvbiI6MX0sInBsYWNlSXRlbSI6eyJlbnRpdHkiOnsiaWQiOiI3MDAwMDAwMTAzMTQ3NTM1NSIsInR5cGUiOiJicmFuY2giLCJzZWdtZW50SW5mbyI6eyJiYXNlTG9jYWxlIjoicnVfUlUiLCJzZWdtZW50SWQiOiI0In19LCJnZW9Qb3NpdGlvbiI6eyJsb24iOjgzLjc3MzYwNiwibGF0Ijo1My4zNTM2NzF9LCJhZHNTZWFyY2giOmZhbHNlLCJtYWluUnVicmljIjoiNjYxIiwiaXNEZWxldGVkIjpmYWxzZSwib3JnIjoiNzAwMDAwMDEwMzE0NzUzNTQiLCJyZXN1bHRDbGFzcyI6MX0sImV4dGVybmFsTGluayI6eyJmb3JrRXZlbnRPcmRpbmFsIjo0NzgsInBhcmVudFRhYklkIjoiNDc5OWFlODktZWQwMi00ZDUxLWE3N2ItNWY0OTQxODgxZWI2In19fV0%3D"/>
+    <hyperlink ref="D4" r:id="rId5" display="tel:+73852720727"/>
+    <hyperlink ref="D5" r:id="rId6" display="tel:+73854418977"/>
+    <hyperlink ref="E5" r:id="rId7" display="https://link.2gis.com/3.2/aHR0cDovL3d3dy56aGQtYmFybmF1bC5ydS8KaHR0cHM6Ly9zMS5ic3MuMmdpcy5jb20vYnNzLzMKW3siY29tbW9uIjp7ImZvcm1hdFZlcnNpb24iOjMsImFwcFZlcnNpb24iOiIyMDIyLTEyLTA3LTE0IiwicHJvZHVjdCI6MzQsImFwaWtleSI6InJ1cmJibjM0NDYiLCJhcGlrZXlTdGF0dXMiOjEsImRldmljZUxvY2FsZSI6InJ1X1JVIiwidXNlciI6ImRkY2EwYTFmLWE3MTQtNDY5MS1iNDVlLTZmYzlkZTE4MDE0YSIsImlwIjoiMzcuMTk0LjMxLjEzNCIsInNlc3Npb25JZCI6IjY1MzkwYTZlLTU2NTQtNGQ1NC04MjY2LTUxMmNhM2IxMzBmMiIsInVzZXJBZ2VudCI6Ik1vemlsbGEvNS4wIChXaW5kb3dzIE5UIDEwLjA7IFdpbjY0OyB4NjQpIEFwcGxlV2ViS2l0LzUzNy4zNiAoS0hUTUwsIGxpa2UgR2Vja28pIENocm9tZS8xMDguMC4wLjAgU2FmYXJpLzUzNy4zNiIsImRldmljZVR5cGUiOiJkZXNrdG9wIiwicGVyc29uYWxEYXRhQ29sbGVjdGlvbkFsbG93ZWQiOnRydWV9LCJ1dGNPZmZzZXQiOiIrMDc6MDAiLCJ0YWJJZCI6IjYwMTE0ZTVmLWQwOTgtNGViMi1hYmE5LWI3NWEzMWNlYjQzYSIsInRpbWVzdGFtcCI6MTY3MDQyMzc4MzgyNywidHlwZSI6MjExLCJldmVudFR5cGUiOiJhY3Rpb24iLCJldmVudElkIjoiZWUwNWM4ZjAtZmFhNS00MGQ3LWI1NDYtNzYyM2ZmYjlhMTE0IiwiYWN0aW9uVHlwZSI6ImV4dGVybmFsTGluayIsImV2ZW50T3JkaW5hbCI6MCwidWlFbGVtZW50Ijp7Im5hbWUiOiJjb250YWN0Iiwib3duZXJOYW1lIjoiY2FyZENvbnRhY3RzIiwicG9zaXRpb24iOjEsImZyYW1lVXVpZCI6ImNmYjczM2Y1LTljM2UtNDA1Yi1hYzFmLTE4NmIzN2E1OWVmMSJ9LCJwYXlsb2FkIjp7ImNvbnRhY3QiOnsidmFsdWUiOiJodHRwOi8vbGluay4yZ2lzLmNvbS8xLjIvNzA3QkI5NEMvb25saW5lLzIwMjIxMjAxL3Byb2plY3QyMC8yODE1Mjc4MDQ4MDg2MDU3L251bGwvdzNFbXNnM0EyOTNINEgzQjE2SUdHR0cwdXR2c21zNDdHNkdDMjdCMzE5Mjk2MzY4dWRjbjU2NDk5Nkc4M0c2RzFKMUpJSjRKbnNlbHV2MTk3MzQ1Mzc5MjdBSDFIM0pIN2U%2FaHR0cDovL3d3dy56aGQtYmFybmF1bC5ydSIsInR5cGUiOiJ3ZWJzaXRlIiwicG9zaXRpb24iOjF9LCJwbGFjZUl0ZW0iOnsiZW50aXR5Ijp7ImlkIjoiMjgxNTI3ODA0ODA4NjA1NyIsInR5cGUiOiJicmFuY2giLCJzZWdtZW50SW5mbyI6eyJiYXNlTG9jYWxlIjoicnVfUlUiLCJzZWdtZW50SWQiOiIyMCJ9fSwiZ2VvUG9zaXRpb24iOnsibG9uIjo4NS4xODQzNzgsImxhdCI6NTIuNTM0MzE5fSwiaHlicmlkRW50aXRpZXMiOlt7ImlkIjoiMjgxNTM4NTQyMjI3NTk1OSIsInR5cGUiOiJidWlsZGluZyJ9XSwiYWRzU2VhcmNoIjpmYWxzZSwibWFpblJ1YnJpYyI6IjIyNCIsImlzRGVsZXRlZCI6ZmFsc2UsIm9yZyI6IjI4MTUyODY2MzgwMjA1MDQiLCJyZXN1bHRDbGFzcyI6MX0sImV4dGVybmFsTGluayI6eyJmb3JrRXZlbnRPcmRpbmFsIjo4MDIsInBhcmVudFRhYklkIjoiNDc5OWFlODktZWQwMi00ZDUxLWE3N2ItNWY0OTQxODgxZWI2In19fV0%3D"/>
+    <hyperlink ref="D6" r:id="rId8" display="tel:+73852507589"/>
+    <hyperlink ref="E6" r:id="rId9" display="https://link.2gis.com/3.2/aHR0cDovL3d3dy51bHRyYW1lZGJhcm5hdWwucnUvCmh0dHBzOi8vczEuYnNzLjJnaXMuY29tL2Jzcy8zClt7ImNvbW1vbiI6eyJmb3JtYXRWZXJzaW9uIjozLCJhcHBWZXJzaW9uIjoiMjAyMi0xMi0wNy0xNCIsInByb2R1Y3QiOjM0LCJhcGlrZXkiOiJydXJiYm4zNDQ2IiwiYXBpa2V5U3RhdHVzIjoxLCJkZXZpY2VMb2NhbGUiOiJydV9SVSIsInVzZXIiOiJkZGNhMGExZi1hNzE0LTQ2OTEtYjQ1ZS02ZmM5ZGUxODAxNGEiLCJpcCI6IjM3LjE5NC4zMS4xMzQiLCJzZXNzaW9uSWQiOiI2NTM5MGE2ZS01NjU0LTRkNTQtODI2Ni01MTJjYTNiMTMwZjIiLCJ1c2VyQWdlbnQiOiJNb3ppbGxhLzUuMCAoV2luZG93cyBOVCAxMC4wOyBXaW42NDsgeDY0KSBBcHBsZVdlYktpdC81MzcuMzYgKEtIVE1MLCBsaWtlIEdlY2tvKSBDaHJvbWUvMTA4LjAuMC4wIFNhZmFyaS81MzcuMzYiLCJkZXZpY2VUeXBlIjoiZGVza3RvcCIsInBlcnNvbmFsRGF0YUNvbGxlY3Rpb25BbGxvd2VkIjp0cnVlfSwidXRjT2Zmc2V0IjoiKzA3OjAwIiwidGFiSWQiOiJiNzYxNzcxZC1mYzI4LTQ3NDAtODEwMi1iOTY3Yjg4ZmM5ODciLCJ0aW1lc3RhbXAiOjE2NzA0MjM5ODMwOTIsInR5cGUiOjIxMSwiZXZlbnRUeXBlIjoiYWN0aW9uIiwiZXZlbnRJZCI6Ijg3NDVkZGE0LTA3ZDEtNDhjYS05MDIzLWRhM2IzZTFhNDRiNyIsImFjdGlvblR5cGUiOiJleHRlcm5hbExpbmsiLCJldmVudE9yZGluYWwiOjAsInVpRWxlbWVudCI6eyJuYW1lIjoiY29udGFjdCIsIm93bmVyTmFtZSI6ImNhcmRDb250YWN0cyIsInBvc2l0aW9uIjoxLCJmcmFtZVV1aWQiOiI5YzAzYTI1NC03MGFmLTQzNDAtYTBlYS0xZDhmNmI5ZTJiMjAifSwicGF5bG9hZCI6eyJjb250YWN0Ijp7InZhbHVlIjoiaHR0cDovL2xpbmsuMmdpcy5jb20vMS4yLzg3ODExMEEwL29ubGluZS8yMDIyMTIwMS9wcm9qZWN0NC81NjM0NzgyMzQ3MzM2MzAvbnVsbC94anhmNjIzQTI5M0g0SDY5MzVJR0dHMGF1ejdta2U0N0c2R0MyN0IzMDg1NDY2MUh1ZGNuNTY0QjhDRzg5RzZHMUpHSkk3R0pwYnRpdXYxOTczNDU4ODM1NzkxSDFKSjJlP2h0dHA6Ly93d3cudWx0cmFtZWRiYXJuYXVsLnJ1IiwidHlwZSI6IndlYnNpdGUiLCJwb3NpdGlvbiI6MX0sInBsYWNlSXRlbSI6eyJlbnRpdHkiOnsiaWQiOiI1NjM0NzgyMzQ3MzM2MzAiLCJ0eXBlIjoiYnJhbmNoIiwic2VnbWVudEluZm8iOnsiYmFzZUxvY2FsZSI6InJ1X1JVIiwic2VnbWVudElkIjoiNCJ9fSwiZ2VvUG9zaXRpb24iOnsibG9uIjo4My42ODgyODcsImxhdCI6NTMuMzM0NTczfSwiYWRzU2VhcmNoIjpmYWxzZSwibWFpblJ1YnJpYyI6IjQ1MjEiLCJpc0RlbGV0ZWQiOmZhbHNlLCJvcmciOiI1NjM0ODY4MjQ1NzUzODkiLCJyZXN1bHRDbGFzcyI6MX0sImV4dGVybmFsTGluayI6eyJmb3JrRXZlbnRPcmRpbmFsIjo4NTUsInBhcmVudFRhYklkIjoiNDc5OWFlODktZWQwMi00ZDUxLWE3N2ItNWY0OTQxODgxZWI2In19fV0%3D"/>
+    <hyperlink ref="D7" r:id="rId10" display="tel:+73854418977"/>
+    <hyperlink ref="E7" r:id="rId11" display="https://link.2gis.com/3.2/aHR0cDovL3d3dy56aGQtYmFybmF1bC5ydS8KaHR0cHM6Ly9zMS5ic3MuMmdpcy5jb20vYnNzLzMKW3siY29tbW9uIjp7ImZvcm1hdFZlcnNpb24iOjMsImFwcFZlcnNpb24iOiIyMDIyLTEyLTA3LTE0IiwicHJvZHVjdCI6MzQsImFwaWtleSI6InJ1cmJibjM0NDYiLCJhcGlrZXlTdGF0dXMiOjEsImRldmljZUxvY2FsZSI6InJ1X1JVIiwidXNlciI6ImRkY2EwYTFmLWE3MTQtNDY5MS1iNDVlLTZmYzlkZTE4MDE0YSIsImlwIjoiMzcuMTk0LjMxLjEzNCIsInNlc3Npb25JZCI6IjY1MzkwYTZlLTU2NTQtNGQ1NC04MjY2LTUxMmNhM2IxMzBmMiIsInVzZXJBZ2VudCI6Ik1vemlsbGEvNS4wIChXaW5kb3dzIE5UIDEwLjA7IFdpbjY0OyB4NjQpIEFwcGxlV2ViS2l0LzUzNy4zNiAoS0hUTUwsIGxpa2UgR2Vja28pIENocm9tZS8xMDguMC4wLjAgU2FmYXJpLzUzNy4zNiIsImRldmljZVR5cGUiOiJkZXNrdG9wIiwicGVyc29uYWxEYXRhQ29sbGVjdGlvbkFsbG93ZWQiOnRydWV9LCJ1dGNPZmZzZXQiOiIrMDc6MDAiLCJ0YWJJZCI6IjYwMTE0ZTVmLWQwOTgtNGViMi1hYmE5LWI3NWEzMWNlYjQzYSIsInRpbWVzdGFtcCI6MTY3MDQyMzc4MzgyNywidHlwZSI6MjExLCJldmVudFR5cGUiOiJhY3Rpb24iLCJldmVudElkIjoiZWUwNWM4ZjAtZmFhNS00MGQ3LWI1NDYtNzYyM2ZmYjlhMTE0IiwiYWN0aW9uVHlwZSI6ImV4dGVybmFsTGluayIsImV2ZW50T3JkaW5hbCI6MCwidWlFbGVtZW50Ijp7Im5hbWUiOiJjb250YWN0Iiwib3duZXJOYW1lIjoiY2FyZENvbnRhY3RzIiwicG9zaXRpb24iOjEsImZyYW1lVXVpZCI6ImNmYjczM2Y1LTljM2UtNDA1Yi1hYzFmLTE4NmIzN2E1OWVmMSJ9LCJwYXlsb2FkIjp7ImNvbnRhY3QiOnsidmFsdWUiOiJodHRwOi8vbGluay4yZ2lzLmNvbS8xLjIvNzA3QkI5NEMvb25saW5lLzIwMjIxMjAxL3Byb2plY3QyMC8yODE1Mjc4MDQ4MDg2MDU3L251bGwvdzNFbXNnM0EyOTNINEgzQjE2SUdHR0cwdXR2c21zNDdHNkdDMjdCMzE5Mjk2MzY4dWRjbjU2NDk5Nkc4M0c2RzFKMUpJSjRKbnNlbHV2MTk3MzQ1Mzc5MjdBSDFIM0pIN2U%2FaHR0cDovL3d3dy56aGQtYmFybmF1bC5ydSIsInR5cGUiOiJ3ZWJzaXRlIiwicG9zaXRpb24iOjF9LCJwbGFjZUl0ZW0iOnsiZW50aXR5Ijp7ImlkIjoiMjgxNTI3ODA0ODA4NjA1NyIsInR5cGUiOiJicmFuY2giLCJzZWdtZW50SW5mbyI6eyJiYXNlTG9jYWxlIjoicnVfUlUiLCJzZWdtZW50SWQiOiIyMCJ9fSwiZ2VvUG9zaXRpb24iOnsibG9uIjo4NS4xODQzNzgsImxhdCI6NTIuNTM0MzE5fSwiaHlicmlkRW50aXRpZXMiOlt7ImlkIjoiMjgxNTM4NTQyMjI3NTk1OSIsInR5cGUiOiJidWlsZGluZyJ9XSwiYWRzU2VhcmNoIjpmYWxzZSwibWFpblJ1YnJpYyI6IjIyNCIsImlzRGVsZXRlZCI6ZmFsc2UsIm9yZyI6IjI4MTUyODY2MzgwMjA1MDQiLCJyZXN1bHRDbGFzcyI6MX0sImV4dGVybmFsTGluayI6eyJmb3JrRXZlbnRPcmRpbmFsIjo4MDIsInBhcmVudFRhYklkIjoiNDc5OWFlODktZWQwMi00ZDUxLWE3N2ItNWY0OTQxODgxZWI2In19fV0%3D"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
-  <drawing r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
+  <drawing r:id="rId13"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_dlc_DocId xmlns="b8a301b8-fba3-4a56-9ee3-0e2775d83ffb">6MRAV4MPJ4WK-605773199-208</_dlc_DocId>
@@ -855,7 +787,66 @@
 </p:properties>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Документ" ma:contentTypeID="0x010100E2008D7E4742AA41887FDC2E79A7A762" ma:contentTypeVersion="1" ma:contentTypeDescription="Создание документа." ma:contentTypeScope="" ma:versionID="f9aaf2498e151e4c742fbf1c352ca431">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b8a301b8-fba3-4a56-9ee3-0e2775d83ffb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c95ad6c5f32494a945af1673268ec41" ns2:_="">
     <xsd:import namespace="b8a301b8-fba3-4a56-9ee3-0e2775d83ffb"/>
@@ -1000,65 +991,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28D65DD3-3A63-45BF-A897-2BF76555CF21}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A25D7794-8982-464B-8F1D-0C3EC06EF16B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -1074,7 +1007,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28D65DD3-3A63-45BF-A897-2BF76555CF21}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{804AC0A1-4F33-4181-8C23-B0A36819A154}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E71F0884-BE63-4CF6-875E-8F62E6BEA50D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1090,12 +1039,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{804AC0A1-4F33-4181-8C23-B0A36819A154}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>